--- a/src/templates/PM Survived_Template.xlsx
+++ b/src/templates/PM Survived_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC6411-65C2-48CE-A6E3-BB7C2F8CE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD954E14-136F-4E9A-90AB-2DA61E799EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1011" yWindow="2220" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Macropropagation</t>
   </si>
   <si>
-    <t>Regional Office 4</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Delete this sample data before proceeding.</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1"/>
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>0</v>
@@ -642,19 +642,19 @@
         <v>3</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>5</v>
@@ -684,20 +684,20 @@
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="I7" s="6">
         <v>2000</v>
@@ -715,7 +715,7 @@
         <v>1000</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">

--- a/src/templates/PM Survived_Template.xlsx
+++ b/src/templates/PM Survived_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD954E14-136F-4E9A-90AB-2DA61E799EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37242FC5-AAEF-4CD9-8FBE-D7695EA99BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1011" yWindow="2220" windowWidth="31723" windowHeight="14366" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -109,7 +109,19 @@
     <t>Delete this sample data before proceeding.</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="12" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -295,6 +307,10 @@
     </xf>
     <xf numFmtId="12" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -522,29 +538,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" customWidth="1"/>
     <col min="4" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.61328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.07421875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="12.53515625" style="2"/>
+    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" style="2" customWidth="1"/>
+    <col min="10" max="13" width="15" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="30" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -559,10 +575,13 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -577,10 +596,13 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -595,10 +617,13 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -613,10 +638,13 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -648,19 +676,28 @@
         <v>12</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -671,13 +708,16 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>45060</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -687,7 +727,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
@@ -705,20 +745,29 @@
       <c r="J7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="14">
+        <v>45060</v>
+      </c>
+      <c r="L7" s="6">
+        <v>29</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7">
         <v>44516</v>
       </c>
-      <c r="L7" s="7">
+      <c r="O7" s="7">
         <v>2000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="P7" s="8">
         <v>1000</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -729,12 +778,15 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -745,12 +797,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -761,12 +816,15 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -777,12 +835,15 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -793,12 +854,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -809,12 +873,15 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -825,12 +892,15 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -841,12 +911,15 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -857,12 +930,15 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -873,12 +949,15 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -889,12 +968,15 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -905,12 +987,15 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -925,8 +1010,11 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -941,8 +1029,11 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -957,8 +1048,11 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -973,8 +1067,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -989,8 +1086,11 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1005,8 +1105,11 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1021,8 +1124,11 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1037,8 +1143,11 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1053,8 +1162,11 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1069,8 +1181,11 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1085,8 +1200,11 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1101,8 +1219,11 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1117,8 +1238,11 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1133,8 +1257,11 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1149,8 +1276,11 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1165,8 +1295,11 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1181,8 +1314,11 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1197,8 +1333,11 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1213,8 +1352,11 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1229,8 +1371,11 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1245,8 +1390,11 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1261,8 +1409,11 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1277,8 +1428,11 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1293,14 +1447,17 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OhpebjaF3Siw0NLN/E+8u/+lMjCq1/oD656ggXtyuBiqAr3z9vYyzwuBUwzsgmk2w60ISTe785+WOzQOLqjYOA==" saltValue="sqx6nH9Fjg4079AWyXVSSA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="5">
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E3:O3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
